--- a/DesignDocs/VariableData/Npc_Skill.xlsx
+++ b/DesignDocs/VariableData/Npc_Skill.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>{(Instant, 3, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,10 +573,11 @@
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,13 +594,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
@@ -608,11 +616,14 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
@@ -625,11 +636,14 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -642,14 +656,17 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19200</v>
       </c>
@@ -662,14 +679,17 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19201</v>
       </c>
@@ -682,11 +702,14 @@
       <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19202</v>
       </c>
@@ -699,10 +722,13 @@
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -717,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/Npc_Skill.xlsx
+++ b/DesignDocs/VariableData/Npc_Skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59341DD-5808-494B-8537-6040F499FF3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(melee, 2, 2, 2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19_Badbomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,46 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(melee, 2, 2, 2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19010)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Bounce, 4, 4, 5, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Range, 0, 4, 0, 10, target)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19030)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19_MustleMustle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,30 +136,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Dash, 0, 3, 0, 10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19152)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Instant, 3, 3, 0, 10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime</t>
+    <t>style_tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhancer_tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooler_tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no108_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no108_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no108_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,13 +556,12 @@
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,22 +572,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
@@ -613,17 +591,17 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
@@ -633,103 +611,67 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19200</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19201</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19202</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
